--- a/conferences.xlsx
+++ b/conferences.xlsx
@@ -472,20 +472,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.05069404388178</v>
+        <v>48.21940993853584</v>
       </c>
       <c r="C2" t="n">
-        <v>2.228729811509563</v>
+        <v>2.358383999470391</v>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>126.5</v>
+        <v>142.5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[np.float64(7.0), np.float64(2.5)]</t>
+          <t>[np.float64(8.0), np.float64(2.5)]</t>
         </is>
       </c>
     </row>
@@ -496,20 +496,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>241.5971724268852</v>
+        <v>258.8207399691094</v>
       </c>
       <c r="C3" t="n">
-        <v>1.63305802077065</v>
+        <v>1.597614244308694</v>
       </c>
       <c r="D3" t="n">
-        <v>39.0625</v>
+        <v>39.75</v>
       </c>
       <c r="E3" t="n">
-        <v>52.6875</v>
+        <v>54.75</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[np.float64(5.875), np.float64(3.375)]</t>
+          <t>[np.float64(6.375), np.float64(3.75)]</t>
         </is>
       </c>
     </row>
@@ -520,20 +520,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>236.9238156937739</v>
+        <v>262.1310622291726</v>
       </c>
       <c r="C4" t="n">
-        <v>1.428438102740219</v>
+        <v>1.436873504964886</v>
       </c>
       <c r="D4" t="n">
-        <v>47.44444444444444</v>
+        <v>47.33333333333334</v>
       </c>
       <c r="E4" t="n">
         <v>39.77777777777778</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[np.float64(5.555555555555555), np.float64(3.6666666666666665)]</t>
+          <t>[np.float64(6.0), np.float64(4.111111111111111)]</t>
         </is>
       </c>
     </row>
@@ -544,20 +544,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>125.3608389474129</v>
+        <v>134.386555923162</v>
       </c>
       <c r="C5" t="n">
-        <v>0.838231758120998</v>
+        <v>0.8213884389076197</v>
       </c>
       <c r="D5" t="n">
-        <v>54.9375</v>
+        <v>56</v>
       </c>
       <c r="E5" t="n">
         <v>19.9375</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[np.float64(5.5625), np.float64(3.8125)]</t>
+          <t>[np.float64(5.9375), np.float64(4.1875)]</t>
         </is>
       </c>
     </row>
@@ -568,20 +568,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.13348385343863</v>
+        <v>82.07050083930021</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5106853824188078</v>
+        <v>0.4843666647839996</v>
       </c>
       <c r="D6" t="n">
-        <v>62.35294117647059</v>
+        <v>63.23529411764706</v>
       </c>
       <c r="E6" t="n">
-        <v>3.764705882352941</v>
+        <v>2.470588235294118</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[np.float64(5.176470588235294), np.float64(4.176470588235294)]</t>
+          <t>[np.float64(5.529411764705882), np.float64(4.588235294117647)]</t>
         </is>
       </c>
     </row>
@@ -592,20 +592,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.035220212646241</v>
+        <v>-6.786750826161136</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06562351829981261</v>
+        <v>-0.05505941106070037</v>
       </c>
       <c r="D7" t="n">
-        <v>75.64285714285714</v>
+        <v>74.71428571428571</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.071428571428571</v>
+        <v>-7.857142857142857</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[np.float64(5.142857142857143), np.float64(4.071428571428571)]</t>
+          <t>[np.float64(5.571428571428571), np.float64(4.428571428571429)]</t>
         </is>
       </c>
     </row>
@@ -616,20 +616,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.49350695175938</v>
+        <v>-23.53572813908538</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1709472284252766</v>
+        <v>-0.1961310678257115</v>
       </c>
       <c r="D8" t="n">
-        <v>80</v>
+        <v>80.5</v>
       </c>
       <c r="E8" t="n">
-        <v>-11.41666666666667</v>
+        <v>-12.25</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[np.float64(4.75), np.float64(4.333333333333333)]</t>
+          <t>[np.float64(5.166666666666667), np.float64(4.833333333333333)]</t>
         </is>
       </c>
     </row>
@@ -640,20 +640,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-56.21271117220617</v>
+        <v>-60.04362671831365</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4406109918275349</v>
+        <v>-0.4288830479879547</v>
       </c>
       <c r="D9" t="n">
-        <v>88.5</v>
+        <v>87.78571428571429</v>
       </c>
       <c r="E9" t="n">
         <v>-38.28571428571428</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[np.float64(4.571428571428571), np.float64(4.714285714285714)]</t>
+          <t>[np.float64(4.928571428571429), np.float64(5.071428571428571)]</t>
         </is>
       </c>
     </row>
@@ -664,68 +664,68 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-70.43982443408457</v>
+        <v>-81.56154486441156</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6522205966118942</v>
+        <v>-0.6796795405367629</v>
       </c>
       <c r="D10" t="n">
-        <v>92.41666666666667</v>
+        <v>93.16666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>-39</v>
+        <v>-43.83333333333334</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[np.float64(4.25), np.float64(4.75)]</t>
+          <t>[np.float64(4.666666666666667), np.float64(5.333333333333333)]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mid-American</t>
+          <t>Pac-12</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-107.779641052513</v>
+        <v>-19.13600147505989</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.8266530530440827</v>
+        <v>-0.851158040529049</v>
       </c>
       <c r="D11" t="n">
-        <v>98.07692307692308</v>
+        <v>96</v>
       </c>
       <c r="E11" t="n">
-        <v>-59.23076923076923</v>
+        <v>-74.5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[np.float64(4.230769230769231), np.float64(5.769230769230769)]</t>
+          <t>[np.float64(3.5), np.float64(7.0)]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pac-12</t>
+          <t>Mid-American</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-19.12453413976362</v>
+        <v>-108.5325230139955</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.9560210808944256</v>
+        <v>-0.8176879462315105</v>
       </c>
       <c r="D12" t="n">
-        <v>102</v>
+        <v>97.07692307692308</v>
       </c>
       <c r="E12" t="n">
-        <v>-78.5</v>
+        <v>-59.23076923076923</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[np.float64(3.0), np.float64(6.5)]</t>
+          <t>[np.float64(4.3076923076923075), np.float64(5.846153846153846)]</t>
         </is>
       </c>
     </row>
